--- a/03_Outputs/Transición/04_Cluster/Summary_Stats.xlsx
+++ b/03_Outputs/Transición/04_Cluster/Summary_Stats.xlsx
@@ -520,7 +520,7 @@
         <v>1.771243970207898E-17</v>
       </c>
       <c r="E6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="F6">
         <v>-3.219421053860091</v>
@@ -655,7 +655,7 @@
         <v>-7.961467742377768E-17</v>
       </c>
       <c r="E11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="F11">
         <v>-2.462816822736243</v>
@@ -790,7 +790,7 @@
         <v>-1.081006629240284E-16</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F16">
         <v>-2.845404324371285</v>
@@ -1033,7 +1033,7 @@
         <v>5.44155364043251E-17</v>
       </c>
       <c r="E25">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="F25">
         <v>-2.172643073579311</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="F31">
         <v>-3.528711486057531</v>
@@ -1222,7 +1222,7 @@
         <v>1.168655815394902E-16</v>
       </c>
       <c r="E32">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F32">
         <v>-1.534037028976285</v>
